--- a/tmp/ms2rss_test.xlsx
+++ b/tmp/ms2rss_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ezms2rss\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880A49F7-1339-4ACA-8A84-72D92D454557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E31677-042E-40E0-9A42-EBB64FA3BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="696" windowWidth="28992" windowHeight="20412" xr2:uid="{19198E84-5903-453D-B81C-DEAFFDBB15A1}"/>
+    <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23445" xr2:uid="{A3A9A3A3-B0BA-4E01-B1F7-36141D26B3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ticklist" sheetId="6" r:id="rId1"/>
@@ -24,8 +24,195 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+  <si>
+    <t>注文番号</t>
+  </si>
+  <si>
+    <t>受付No</t>
+  </si>
+  <si>
+    <t>通常注文状況</t>
+  </si>
+  <si>
+    <t>逆指値注文状況</t>
+  </si>
+  <si>
+    <t>アルゴ注文状況</t>
+  </si>
+  <si>
+    <t>銘柄コード</t>
+  </si>
+  <si>
+    <t>銘柄名称</t>
+  </si>
+  <si>
+    <t>口座区分</t>
+  </si>
+  <si>
+    <t>市場名称</t>
+  </si>
+  <si>
+    <t>信用区分</t>
+  </si>
+  <si>
+    <t>弁済期限</t>
+  </si>
+  <si>
+    <t>発注/受注日時</t>
+  </si>
+  <si>
+    <t>売買</t>
+  </si>
+  <si>
+    <t>取引</t>
+  </si>
+  <si>
+    <t>執行条件</t>
+  </si>
+  <si>
+    <t>注文期限</t>
+  </si>
+  <si>
+    <t>注文数量</t>
+  </si>
+  <si>
+    <t>約定数量</t>
+  </si>
+  <si>
+    <t>注文単価</t>
+  </si>
+  <si>
+    <t>注文区分</t>
+  </si>
+  <si>
+    <t>逆指値条件</t>
+  </si>
+  <si>
+    <t>セット注文</t>
+  </si>
+  <si>
+    <t>セット注文条件</t>
+  </si>
+  <si>
+    <t>税区分</t>
+  </si>
+  <si>
+    <t>注文失効日時</t>
+  </si>
+  <si>
+    <t>注文失効理由</t>
+  </si>
+  <si>
+    <t>入力経路</t>
+  </si>
+  <si>
+    <t>アルゴ注文条件</t>
+  </si>
+  <si>
+    <t>価格判定時刻</t>
+  </si>
+  <si>
+    <t>価格判定情報/対象外理由</t>
+  </si>
+  <si>
+    <t>発注ID</t>
+  </si>
+  <si>
+    <t>関数名</t>
+  </si>
+  <si>
+    <t>発注日</t>
+  </si>
+  <si>
+    <t>発注時刻</t>
+  </si>
+  <si>
+    <t>発注結果</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>建市場</t>
+  </si>
+  <si>
+    <t>建玉数量</t>
+  </si>
+  <si>
+    <t>発注数量</t>
+  </si>
+  <si>
+    <t>建値</t>
+  </si>
+  <si>
+    <t>建日</t>
+  </si>
+  <si>
+    <t>最終返済日</t>
+  </si>
+  <si>
+    <t>時価</t>
+  </si>
+  <si>
+    <t>前日比</t>
+  </si>
+  <si>
+    <t>前日比率</t>
+  </si>
+  <si>
+    <t>時価評価額</t>
+  </si>
+  <si>
+    <t>評価損益額</t>
+  </si>
+  <si>
+    <t>評価損益率</t>
+  </si>
+  <si>
+    <t>保証金率</t>
+  </si>
+  <si>
+    <t>現金保証金率</t>
+  </si>
+  <si>
+    <t>ＡＮＹＣＯＬＯＲ</t>
+  </si>
+  <si>
+    <t>特定</t>
+  </si>
+  <si>
+    <t>東証</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>無期限</t>
+  </si>
+  <si>
+    <t>買建</t>
+  </si>
+  <si>
+    <t>JNX</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,8 +256,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -88,6 +278,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv.0b1dd87dcde74b74bfb1796048a8e0cd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MarginPositionList</stp>
+        <stp>2639000585808,0,0,0,0</stp>
+        <stp/>
+        <stp>A</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <tr r="A1" s="5"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>OrderIDList</stp>
+        <stp>2639000588464,0,0,0,0</stp>
+        <tr r="A1" s="4"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>OrderList</stp>
+        <stp>2638999224448,0,0,0,0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp/>
+        <stp>A</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <tr r="A1" s="3"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D4755-70AC-489D-9C8A-0696B1C1B60B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F25855-03E4-4B9D-81BE-4930DB051D14}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -399,51 +633,544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E459FD4F-1963-4E8C-AB56-7A89411EB9EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73A8D9-622D-456A-8F5C-94F68B0619A3}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>_xll.RssMarginPositionList($A$2:$T$2)</f>
+        <v>=@RssMarginPositionList($A$2:$T$2) =&gt; 配信中</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5032</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3880</v>
+      </c>
+      <c r="K3">
+        <v>20230718</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <v>3370</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0.3</v>
+      </c>
+      <c r="P3">
+        <v>1348000</v>
+      </c>
+      <c r="Q3">
+        <v>-215606</v>
+      </c>
+      <c r="R3">
+        <v>-13.892139</v>
+      </c>
+      <c r="S3">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5032</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3739</v>
+      </c>
+      <c r="K4">
+        <v>20230727</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>3370</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>1348000</v>
+      </c>
+      <c r="Q4">
+        <v>-157667</v>
+      </c>
+      <c r="R4">
+        <v>-10.542057</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B5A1D8-824A-43DB-95B5-7B6902ACF340}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6EA86-4B37-4225-960D-FB7EA873631D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>_xll.RssOrderIDList($A$2:$F$2)</f>
+        <v>=@RssOrderIDList($A$2:$F$2) =&gt; 配信中</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD4A8A1-090C-40DF-98E9-4A79CECD9393}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BEAD4D-4D66-4612-92B7-E58C8D88DE10}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>_xll.RssOrderList($A$2:$AD$2)</f>
+        <v>=@RssOrderList($A$2:$AD$2) =&gt; 配信中</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C692B8-5E12-4903-B8F5-D758217420B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823BA6F6-8A22-4928-95B1-1E1D9363AC54}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tmp/ms2rss_test.xlsx
+++ b/tmp/ms2rss_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ezms2rss\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E31677-042E-40E0-9A42-EBB64FA3BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD65AC2-264B-4F2E-BC62-AC35D8E347FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23445" xr2:uid="{A3A9A3A3-B0BA-4E01-B1F7-36141D26B3DA}"/>
+    <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23445" xr2:uid="{A89D51A3-A8D3-4DCD-800C-179513B1E6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ticklist" sheetId="6" r:id="rId1"/>
@@ -283,12 +283,28 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.0b1dd87dcde74b74bfb1796048a8e0cd">
+    <main first="rtdsrv.54ee0cc0472c4e9bb0a2d1bfe64039da">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>OrderList</stp>
+        <stp>2165665776512,0,0,0,0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp/>
+        <stp>A</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <stp>0</stp>
+        <tr r="A1" s="3"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>MarginPositionList</stp>
-        <stp>2639000585808,0,0,0,0</stp>
+        <stp>2165664524208,0,0,0,0</stp>
         <stp/>
         <stp>A</stp>
         <stp>0</stp>
@@ -300,24 +316,8 @@
         <v/>
         <stp/>
         <stp>OrderIDList</stp>
-        <stp>2639000588464,0,0,0,0</stp>
+        <stp>2165665773856,0,0,0,0</stp>
         <tr r="A1" s="4"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>OrderList</stp>
-        <stp>2638999224448,0,0,0,0</stp>
-        <stp>0</stp>
-        <stp>0</stp>
-        <stp/>
-        <stp>A</stp>
-        <stp>0</stp>
-        <stp>0</stp>
-        <stp>0</stp>
-        <stp>0</stp>
-        <stp>0</stp>
-        <tr r="A1" s="3"/>
       </tp>
     </main>
   </volType>
@@ -620,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F25855-03E4-4B9D-81BE-4930DB051D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7EC655-61F1-49D6-90CB-91A6B1515413}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73A8D9-622D-456A-8F5C-94F68B0619A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6A836-BFD0-4338-991C-1801530BD313}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -901,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6EA86-4B37-4225-960D-FB7EA873631D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06364C8-EB3B-4037-A774-A5F3E6E251FE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -961,7 +961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BEAD4D-4D66-4612-92B7-E58C8D88DE10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6AA184-3E28-43E3-A241-899C79DE4BDE}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1165,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823BA6F6-8A22-4928-95B1-1E1D9363AC54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4068898-5311-4082-A40A-FE7CC4091AC4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/tmp/ms2rss_test.xlsx
+++ b/tmp/ms2rss_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ezms2rss\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD65AC2-264B-4F2E-BC62-AC35D8E347FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42999170-67B9-4447-9694-9294E867954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23445" xr2:uid="{A89D51A3-A8D3-4DCD-800C-179513B1E6DF}"/>
+    <workbookView xWindow="7410" yWindow="7410" windowWidth="43200" windowHeight="23445" xr2:uid="{6E010DEC-8F37-4E4C-9A64-E26DC74B7600}"/>
   </bookViews>
   <sheets>
     <sheet name="ticklist" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>注文番号</t>
   </si>
@@ -190,27 +190,6 @@
   </si>
   <si>
     <t>現金保証金率</t>
-  </si>
-  <si>
-    <t>ＡＮＹＣＯＬＯＲ</t>
-  </si>
-  <si>
-    <t>特定</t>
-  </si>
-  <si>
-    <t>東証</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>無期限</t>
-  </si>
-  <si>
-    <t>買建</t>
-  </si>
-  <si>
-    <t>JNX</t>
   </si>
 </sst>
 </file>
@@ -283,12 +262,12 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.54ee0cc0472c4e9bb0a2d1bfe64039da">
+    <main first="rtdsrv.1f9f01e7721346e7a0a3226f8c8a867e">
       <tp t="s">
         <v/>
         <stp/>
         <stp>OrderList</stp>
-        <stp>2165665776512,0,0,0,0</stp>
+        <stp>1711234366368,0,0,0,0</stp>
         <stp>0</stp>
         <stp>0</stp>
         <stp/>
@@ -304,7 +283,7 @@
         <v/>
         <stp/>
         <stp>MarginPositionList</stp>
-        <stp>2165664524208,0,0,0,0</stp>
+        <stp>1711232246688,0,0,0,0</stp>
         <stp/>
         <stp>A</stp>
         <stp>0</stp>
@@ -316,7 +295,7 @@
         <v/>
         <stp/>
         <stp>OrderIDList</stp>
-        <stp>2165665773856,0,0,0,0</stp>
+        <stp>1711232593184,0,0,0,0</stp>
         <tr r="A1" s="4"/>
       </tp>
     </main>
@@ -620,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7EC655-61F1-49D6-90CB-91A6B1515413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54808F16-BD71-420E-A17F-2061AB21750E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -633,8 +612,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6A836-BFD0-4338-991C-1801530BD313}">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4926B007-1697-49A3-BC4E-11CDFAF3DC43}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +622,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>_xll.RssMarginPositionList($A$2:$T$2)</f>
-        <v>=@RssMarginPositionList($A$2:$T$2) =&gt; 配信中</v>
+        <v>=@RssMarginPositionList($A$2:$T$2) =&gt; 接続待ち</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -706,192 +685,6 @@
       </c>
       <c r="T2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>5032</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <v>400</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3880</v>
-      </c>
-      <c r="K3">
-        <v>20230718</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3">
-        <v>3370</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>0.3</v>
-      </c>
-      <c r="P3">
-        <v>1348000</v>
-      </c>
-      <c r="Q3">
-        <v>-215606</v>
-      </c>
-      <c r="R3">
-        <v>-13.892139</v>
-      </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>5032</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4">
-        <v>400</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3739</v>
-      </c>
-      <c r="K4">
-        <v>20230727</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>3370</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>0.3</v>
-      </c>
-      <c r="P4">
-        <v>1348000</v>
-      </c>
-      <c r="Q4">
-        <v>-157667</v>
-      </c>
-      <c r="R4">
-        <v>-10.542057</v>
-      </c>
-      <c r="S4">
-        <v>30</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06364C8-EB3B-4037-A774-A5F3E6E251FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3FC3BE-3E67-4365-86D1-AB588E2CF17D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -961,8 +754,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6AA184-3E28-43E3-A241-899C79DE4BDE}">
-  <dimension ref="A1:AD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842ED72-76B6-4EBB-BA9E-D83C5072AB42}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,7 +764,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>_xll.RssOrderList($A$2:$AD$2)</f>
-        <v>=@RssOrderList($A$2:$AD$2) =&gt; 配信中</v>
+        <v>=@RssOrderList($A$2:$AD$2) =&gt; 接続待ち</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.4">
@@ -1064,98 +857,6 @@
       </c>
       <c r="AD2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4068898-5311-4082-A40A-FE7CC4091AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F0109-F113-4AC4-B92C-BA692F08D359}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
